--- a/example.xlsx
+++ b/example.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\departments.sig.ads\data\Departments\Trading\Users\kconnolly101\My Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -22,9 +27,6 @@
     <t>Home</t>
   </si>
   <si>
-    <t>Away</t>
-  </si>
-  <si>
     <t>H Gol</t>
   </si>
   <si>
@@ -73,6 +75,12 @@
     <t>AT6</t>
   </si>
   <si>
+    <t>AT7</t>
+  </si>
+  <si>
+    <t>AT8</t>
+  </si>
+  <si>
     <t>HB1</t>
   </si>
   <si>
@@ -181,136 +189,139 @@
     <t>19 January 2019</t>
   </si>
   <si>
-    <t>Wolverhampton Wanderers</t>
-  </si>
-  <si>
-    <t>Leicester City</t>
-  </si>
-  <si>
-    <t>C. Kavanagh</t>
-  </si>
-  <si>
-    <t>AFC Bournemouth</t>
-  </si>
-  <si>
-    <t>West Ham United</t>
-  </si>
-  <si>
-    <t>S. Hooper</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
-    <t>J. Moss</t>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>A. Taylor</t>
+  </si>
+  <si>
+    <t>20 January 2019</t>
+  </si>
+  <si>
+    <t>Huddersfield Town</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
+    <t>A. Marriner</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>Tottenham Hotspur</t>
+  </si>
+  <si>
+    <t>C. Pawson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="9" tint="0.3999755851924192"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color rgb="FFC00000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="5" tint="-0.249977111117893"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.7999816888943144"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7999816888943144"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,7 +339,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.3499862666707358"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,19 +351,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1499984740745262"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.7999816888943144"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.7999816888943144"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,107 +430,119 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="5" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="5" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="6" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="6" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="6" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="7" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="7" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="7" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="8" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="9" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="10" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="10" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="11" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf applyAlignment="1" borderId="4" fillId="2" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
     <cellStyle name="Normal 3 3" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -785,422 +808,403 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:BB4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="14.140625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="13.42578125"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="13.28515625"/>
-    <col bestFit="1" customWidth="1" max="44" min="44" width="12.140625"/>
-    <col bestFit="1" customWidth="1" max="51" min="51" width="10.85546875"/>
-    <col bestFit="1" customWidth="1" max="52" min="52" width="11.42578125"/>
-    <col bestFit="1" customWidth="1" max="53" min="53" width="10.85546875"/>
-    <col bestFit="1" customWidth="1" max="54" min="54" width="11.42578125"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="15.75" r="1" s="29" spans="1:54" thickBot="1">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:56" s="21" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="X1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="Y1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Z1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AA1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AB1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AC1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AD1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AE1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AF1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AG1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AH1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AI1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="13" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="13" t="s">
+      <c r="AK1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AL1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AM1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="16" t="s">
+      <c r="AN1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="17" t="s">
+      <c r="AO1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="18" t="s">
+      <c r="AP1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="19" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="20" t="s">
+      <c r="AR1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="21" t="s">
+      <c r="AS1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="22" t="s">
+      <c r="AT1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="22" t="s">
+      <c r="AU1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="23" t="s">
+      <c r="AV1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="23" t="s">
+      <c r="AW1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="24" t="s">
+      <c r="AX1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="25" t="s">
+      <c r="AY1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="26" t="s">
+      <c r="AZ1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="27" t="s">
+      <c r="BA1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="28" t="s">
+      <c r="BB1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="28" t="s">
+      <c r="BC1" s="30" t="s">
         <v>53</v>
       </c>
+      <c r="BD1" s="31" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>39</v>
+      </c>
+      <c r="AE2">
+        <v>37</v>
+      </c>
+      <c r="AF2">
+        <v>90</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU2">
+        <v>5</v>
+      </c>
+      <c r="AV2">
+        <v>6</v>
+      </c>
+      <c r="AW2">
+        <v>1</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>13</v>
+      </c>
+      <c r="AZ2">
+        <v>15</v>
+      </c>
+      <c r="BA2">
+        <v>3</v>
+      </c>
+      <c r="BB2">
+        <v>5</v>
+      </c>
+      <c r="BC2">
+        <v>1</v>
+      </c>
+      <c r="BD2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>18</v>
+      </c>
+      <c r="O3">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="P3">
         <v>56</v>
       </c>
-      <c r="D2" t="n">
+      <c r="V3">
+        <v>30</v>
+      </c>
+      <c r="W3">
+        <v>43</v>
+      </c>
+      <c r="AE3">
+        <v>27</v>
+      </c>
+      <c r="AF3">
+        <v>50</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU3">
+        <v>1</v>
+      </c>
+      <c r="AV3">
         <v>4</v>
       </c>
-      <c r="E2" t="n">
+      <c r="AW3">
+        <v>2</v>
+      </c>
+      <c r="AX3">
+        <v>2</v>
+      </c>
+      <c r="AY3">
+        <v>10</v>
+      </c>
+      <c r="AZ3">
+        <v>8</v>
+      </c>
+      <c r="BA3">
+        <v>2</v>
+      </c>
+      <c r="BB3">
         <v>3</v>
       </c>
-      <c r="F2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G2" t="n">
-        <v>12</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="BC3">
+        <v>1</v>
+      </c>
+      <c r="BD3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
         <v>64</v>
       </c>
-      <c r="I2" t="n">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="N4">
+        <v>51</v>
+      </c>
+      <c r="O4">
         <v>90</v>
       </c>
-      <c r="N2" t="n">
-        <v>47</v>
-      </c>
-      <c r="O2" t="n">
-        <v>51</v>
-      </c>
-      <c r="P2" t="n">
-        <v>87</v>
-      </c>
-      <c r="T2" t="n">
-        <v>44</v>
-      </c>
-      <c r="U2" t="n">
-        <v>45</v>
-      </c>
-      <c r="V2" t="n">
-        <v>86</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>45</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>58</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS2" t="n">
+      <c r="V4">
+        <v>74</v>
+      </c>
+      <c r="W4">
+        <v>75</v>
+      </c>
+      <c r="AE4">
+        <v>74</v>
+      </c>
+      <c r="AF4">
+        <v>79</v>
+      </c>
+      <c r="AG4">
+        <v>90</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU4">
+        <v>7</v>
+      </c>
+      <c r="AV4">
+        <v>10</v>
+      </c>
+      <c r="AW4">
+        <v>7</v>
+      </c>
+      <c r="AX4">
+        <v>1</v>
+      </c>
+      <c r="AY4">
+        <v>10</v>
+      </c>
+      <c r="AZ4">
+        <v>8</v>
+      </c>
+      <c r="BA4">
+        <v>3</v>
+      </c>
+      <c r="BB4">
+        <v>3</v>
+      </c>
+      <c r="BC4">
         <v>5</v>
       </c>
-      <c r="AT2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:54">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>53</v>
-      </c>
-      <c r="G3" t="n">
-        <v>90</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:54">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>46</v>
-      </c>
-      <c r="G4" t="n">
-        <v>53</v>
-      </c>
-      <c r="H4" t="n">
-        <v>75</v>
-      </c>
-      <c r="I4" t="n">
-        <v>90</v>
-      </c>
-      <c r="N4" t="n">
-        <v>34</v>
-      </c>
-      <c r="O4" t="n">
-        <v>65</v>
-      </c>
-      <c r="P4" t="n">
-        <v>90</v>
-      </c>
-      <c r="T4" t="n">
-        <v>82</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>89</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX4" t="n">
+      <c r="BD4">
         <v>7</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/example.xlsx
+++ b/example.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kconnolly101\PycharmProjects\soccerway_scraper\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -227,12 +232,15 @@
   </si>
   <si>
     <t>A Pen Mins</t>
+  </si>
+  <si>
+    <t>Week</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -450,7 +458,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -554,6 +562,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -566,6 +577,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -826,7 +840,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -834,432 +848,435 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH4"/>
+  <dimension ref="A1:BI4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BQ9" sqref="BQ9"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="60" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="20" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:61" s="20" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="N1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="V1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="W1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="X1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="Y1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="Z1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="AA1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="26" t="s">
+      <c r="AB1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AC1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="26" t="s">
+      <c r="AD1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AE1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="10" t="s">
+      <c r="AQ1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AR1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="12" t="s">
+      <c r="AS1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="13" t="s">
+      <c r="AT1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="14" t="s">
+      <c r="AU1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="15" t="s">
+      <c r="AV1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="15" t="s">
+      <c r="AW1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="31" t="s">
+      <c r="AX1" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="33" t="s">
+      <c r="AY1" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="16" t="s">
+      <c r="AZ1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="17" t="s">
+      <c r="BA1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="18" t="s">
+      <c r="BB1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="19" t="s">
+      <c r="BC1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="28" t="s">
+      <c r="BD1" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="29" t="s">
+      <c r="BE1" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="22" t="s">
+      <c r="BF1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BG1" s="30" t="s">
+      <c r="BH1" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="BH1" s="34" t="s">
+      <c r="BI1" s="34" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>58</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>11</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>45</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>20</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>35</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>34</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>54</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>45</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>58</v>
       </c>
-      <c r="AU2">
+      <c r="AV2">
         <v>10</v>
       </c>
-      <c r="AV2">
+      <c r="AW2">
         <v>3</v>
       </c>
-      <c r="AW2">
+      <c r="AX2">
         <v>4</v>
       </c>
-      <c r="AX2">
+      <c r="AY2">
         <v>3</v>
       </c>
-      <c r="AY2">
+      <c r="AZ2">
         <v>6</v>
       </c>
-      <c r="AZ2">
+      <c r="BA2">
         <v>10</v>
       </c>
-      <c r="BA2">
+      <c r="BB2">
         <v>6</v>
       </c>
-      <c r="BB2">
+      <c r="BC2">
         <v>7</v>
       </c>
-      <c r="BC2">
+      <c r="BD2">
         <v>1</v>
       </c>
-      <c r="BD2">
+      <c r="BE2">
         <v>2</v>
       </c>
-      <c r="BE2">
+      <c r="BF2">
         <v>0</v>
       </c>
-      <c r="BF2">
+      <c r="BG2">
         <v>1</v>
       </c>
-      <c r="BG2">
+      <c r="BH2">
         <v>0</v>
       </c>
-      <c r="BH2">
+      <c r="BI2">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>55</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>60</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>50</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AU3" t="s">
         <v>61</v>
       </c>
-      <c r="AU3">
+      <c r="AV3">
         <v>2</v>
       </c>
-      <c r="AV3">
+      <c r="AW3">
         <v>7</v>
       </c>
-      <c r="AW3">
+      <c r="AX3">
         <v>5</v>
       </c>
-      <c r="AX3">
+      <c r="AY3">
         <v>0</v>
       </c>
-      <c r="AY3">
+      <c r="AZ3">
         <v>12</v>
       </c>
-      <c r="AZ3">
+      <c r="BA3">
         <v>4</v>
       </c>
-      <c r="BA3">
+      <c r="BB3">
         <v>0</v>
       </c>
-      <c r="BB3">
+      <c r="BC3">
         <v>4</v>
       </c>
-      <c r="BC3">
+      <c r="BD3">
         <v>2</v>
       </c>
-      <c r="BD3">
+      <c r="BE3">
         <v>5</v>
       </c>
-      <c r="BE3">
+      <c r="BF3">
         <v>0</v>
       </c>
-      <c r="BF3">
+      <c r="BG3">
         <v>1</v>
       </c>
-      <c r="BG3">
+      <c r="BH3">
         <v>0</v>
       </c>
-      <c r="BH3">
+      <c r="BI3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>62</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>63</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>64</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>39</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>78</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>14</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>19</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AU4" t="s">
         <v>65</v>
       </c>
-      <c r="AU4">
+      <c r="AV4">
         <v>12</v>
       </c>
-      <c r="AV4">
+      <c r="AW4">
         <v>1</v>
       </c>
-      <c r="AW4">
+      <c r="AX4">
         <v>3</v>
       </c>
-      <c r="AX4">
+      <c r="AY4">
         <v>1</v>
       </c>
-      <c r="AY4">
+      <c r="AZ4">
         <v>6</v>
       </c>
-      <c r="AZ4">
+      <c r="BA4">
         <v>2</v>
       </c>
-      <c r="BA4">
+      <c r="BB4">
         <v>7</v>
       </c>
-      <c r="BB4">
+      <c r="BC4">
         <v>9</v>
       </c>
-      <c r="BC4">
+      <c r="BD4">
         <v>0</v>
       </c>
-      <c r="BD4">
+      <c r="BE4">
         <v>3</v>
       </c>
-      <c r="BE4">
+      <c r="BF4">
         <v>1</v>
       </c>
-      <c r="BF4">
+      <c r="BG4">
         <v>0</v>
       </c>
-      <c r="BG4">
+      <c r="BH4">
         <v>39</v>
       </c>
-      <c r="BH4">
+      <c r="BI4">
         <v>0</v>
       </c>
     </row>

--- a/example.xlsx
+++ b/example.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kconnolly101\PycharmProjects\soccerway_scraper\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+  <si>
+    <t>Week</t>
+  </si>
   <si>
     <t>Date</t>
   </si>
@@ -27,6 +25,9 @@
     <t>Home</t>
   </si>
   <si>
+    <t>Away</t>
+  </si>
+  <si>
     <t>H Gol</t>
   </si>
   <si>
@@ -186,42 +187,6 @@
     <t>A Shots OFF</t>
   </si>
   <si>
-    <t>12 January 2019</t>
-  </si>
-  <si>
-    <t>Leicester City</t>
-  </si>
-  <si>
-    <t>Southampton</t>
-  </si>
-  <si>
-    <t>M. Oliver</t>
-  </si>
-  <si>
-    <t>Brighton &amp; Hove Albion</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>K. Friend</t>
-  </si>
-  <si>
-    <t>14 January 2019</t>
-  </si>
-  <si>
-    <t>Manchester City</t>
-  </si>
-  <si>
-    <t>Wolverhampton Wanderers</t>
-  </si>
-  <si>
-    <t>C. Pawson</t>
-  </si>
-  <si>
-    <t>Away</t>
-  </si>
-  <si>
     <t>H Pens</t>
   </si>
   <si>
@@ -234,112 +199,139 @@
     <t>A Pen Mins</t>
   </si>
   <si>
-    <t>Week</t>
+    <t>27 January 2019</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Internazionale</t>
+  </si>
+  <si>
+    <t>F. Maresca</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>SPAL</t>
+  </si>
+  <si>
+    <t>R. Abisso</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>G. Calvarese</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy" numFmtId="164"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <sz val="10"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="9" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="9" tint="0.3999755851924192"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFC00000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,7 +349,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.3499862666707358"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,25 +361,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.1499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.0499893185216834"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,134 +446,122 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="36">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="6" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="6" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="6" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="7" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="7" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="7" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="8" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="10" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="10" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="5" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="5" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="11" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="11" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="12" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="9" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="12" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="9" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="4" fillId="2" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal 3 3" xfId="1"/>
     <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 3 3" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -847,440 +827,496 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:BI4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="11" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="14.140625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="13.42578125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="13.28515625"/>
+    <col bestFit="1" customWidth="1" max="47" min="47" width="12.140625"/>
+    <col bestFit="1" customWidth="1" max="54" min="54" width="10.85546875"/>
+    <col bestFit="1" customWidth="1" max="55" min="55" width="11.42578125"/>
+    <col bestFit="1" customWidth="1" max="56" min="56" width="10.85546875"/>
+    <col bestFit="1" customWidth="1" max="57" min="57" width="11.42578125"/>
+    <col bestFit="1" customWidth="1" max="61" min="60" width="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="20" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row customFormat="1" customHeight="1" ht="15.75" r="1" s="20" spans="1:61" thickBot="1">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61">
+      <c r="A2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>35</v>
+      </c>
+      <c r="W2" t="n">
+        <v>39</v>
+      </c>
+      <c r="X2" t="n">
+        <v>76</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>84</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>86</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61">
+      <c r="A3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H3" t="n">
+        <v>53</v>
+      </c>
+      <c r="O3" t="n">
+        <v>70</v>
+      </c>
+      <c r="P3" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>87</v>
+      </c>
+      <c r="W3" t="n">
+        <v>7</v>
+      </c>
+      <c r="X3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>57</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>76</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61">
+      <c r="A4" t="n">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>44</v>
+      </c>
+      <c r="H4" t="n">
+        <v>59</v>
+      </c>
+      <c r="I4" t="n">
         <v>71</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>64</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF4" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT1" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU1" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV1" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX1" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="AY1" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ1" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA1" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="BC1" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD1" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="BE1" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="BF1" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="BH1" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="BI1" s="34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>58</v>
-      </c>
-      <c r="O2">
-        <v>11</v>
-      </c>
-      <c r="P2">
-        <v>45</v>
-      </c>
-      <c r="W2">
-        <v>20</v>
-      </c>
-      <c r="X2">
-        <v>35</v>
-      </c>
-      <c r="AF2">
-        <v>34</v>
-      </c>
-      <c r="AG2">
-        <v>54</v>
-      </c>
-      <c r="AR2">
-        <v>45</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV2">
-        <v>10</v>
-      </c>
-      <c r="AW2">
-        <v>3</v>
-      </c>
-      <c r="AX2">
-        <v>4</v>
-      </c>
-      <c r="AY2">
-        <v>3</v>
-      </c>
-      <c r="AZ2">
-        <v>6</v>
-      </c>
-      <c r="BA2">
-        <v>10</v>
-      </c>
-      <c r="BB2">
-        <v>6</v>
-      </c>
-      <c r="BC2">
-        <v>7</v>
-      </c>
-      <c r="BD2">
-        <v>1</v>
-      </c>
-      <c r="BE2">
-        <v>2</v>
-      </c>
-      <c r="BF2">
+      <c r="BG4" t="n">
         <v>0</v>
       </c>
-      <c r="BG2">
-        <v>1</v>
-      </c>
-      <c r="BH2">
+      <c r="BH4" t="n">
         <v>0</v>
       </c>
-      <c r="BI2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>50</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV3">
-        <v>2</v>
-      </c>
-      <c r="AW3">
-        <v>7</v>
-      </c>
-      <c r="AX3">
-        <v>5</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>12</v>
-      </c>
-      <c r="BA3">
-        <v>4</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>4</v>
-      </c>
-      <c r="BD3">
-        <v>2</v>
-      </c>
-      <c r="BE3">
-        <v>5</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>1</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>39</v>
-      </c>
-      <c r="I4">
-        <v>78</v>
-      </c>
-      <c r="W4">
-        <v>14</v>
-      </c>
-      <c r="AR4">
-        <v>19</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AV4">
-        <v>12</v>
-      </c>
-      <c r="AW4">
-        <v>1</v>
-      </c>
-      <c r="AX4">
-        <v>3</v>
-      </c>
-      <c r="AY4">
-        <v>1</v>
-      </c>
-      <c r="AZ4">
-        <v>6</v>
-      </c>
-      <c r="BA4">
-        <v>2</v>
-      </c>
-      <c r="BB4">
-        <v>7</v>
-      </c>
-      <c r="BC4">
-        <v>9</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>3</v>
-      </c>
-      <c r="BF4">
-        <v>1</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>39</v>
-      </c>
-      <c r="BI4">
+      <c r="BI4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>